--- a/data/case1/11/P1_14.xlsx
+++ b/data/case1/11/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.078071325549970538</v>
+        <v>0.096431111944355052</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999987341945484</v>
+        <v>-0.0099999993200050596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999998748100424</v>
+        <v>-0.067292533817552069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398291960736088</v>
+        <v>0.28398800098384314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.005999998781302196</v>
+        <v>-0.0059999993475994273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999998749512514</v>
+        <v>-0.0059999993239294724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998581198497</v>
+        <v>-0.019999999192407358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998576444078</v>
+        <v>-0.019999999182501504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999987400711774</v>
+        <v>-0.0059999992986172757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999987388223985</v>
+        <v>-0.0059999992872548091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999987565184085</v>
+        <v>-0.0044999992996253013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999987387446829</v>
+        <v>-0.0059999992832167059</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999987419123713</v>
+        <v>-0.005999999271095291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998672409973</v>
+        <v>-0.011999999212460644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999987470051863</v>
+        <v>-0.0059999992645982658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.051356624878504231</v>
+        <v>-0.0059999992620165532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999987488534856</v>
+        <v>-0.0059999992585604289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999987126914149</v>
+        <v>-0.0089999992303013698</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.066036831091653703</v>
+        <v>-0.0089999993291827174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999987315110275</v>
+        <v>-0.0089999993231462128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.013757938716604912</v>
+        <v>-0.0089999993222455998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999987293616357</v>
+        <v>-0.0089999993215839069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999987391990999</v>
+        <v>-0.0089999993185898575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998330365607</v>
+        <v>-0.041999999005571276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998323090537</v>
+        <v>-0.041999999000113419</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999987465815252</v>
+        <v>-0.0059999993229880033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0036496382636164171</v>
+        <v>-0.0059999993215633651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999987158194656</v>
+        <v>-0.0059999993154882247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999862879686</v>
+        <v>-0.01199999925692552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998527020058</v>
+        <v>-0.019999999182596984</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998575598639</v>
+        <v>-0.014447580125992232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998502863271</v>
+        <v>-0.020999999174823536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999998680771057</v>
+        <v>0.039310346265988727</v>
       </c>
     </row>
   </sheetData>
